--- a/HW5/Book1.xlsx
+++ b/HW5/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaid\PC\Desktop\Code\CS288\HW5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DF1B91-C4AC-47AE-8399-3E6F9C562839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33EDB21-80D4-4BC7-977B-9283D68323D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AF8EBE27-472F-48DC-9707-934EF87B8023}"/>
+    <workbookView xWindow="35940" yWindow="960" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{AF8EBE27-472F-48DC-9707-934EF87B8023}"/>
   </bookViews>
   <sheets>
     <sheet name="Selection Sort" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF38301-FE60-42BE-A13D-F12B73F1B332}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25761CB2-10F6-4539-BEC0-F6F399296DEA}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>

--- a/HW5/Book1.xlsx
+++ b/HW5/Book1.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaid\PC\Desktop\Code\CS288\HW5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33EDB21-80D4-4BC7-977B-9283D68323D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2A098C-7EB7-4A5E-9326-B8D26FA2BE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="960" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{AF8EBE27-472F-48DC-9707-934EF87B8023}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AF8EBE27-472F-48DC-9707-934EF87B8023}"/>
   </bookViews>
   <sheets>
     <sheet name="Selection Sort" sheetId="1" r:id="rId1"/>
-    <sheet name="Merge Sort" sheetId="2" r:id="rId2"/>
-    <sheet name="Radix Sort" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Size (X)</t>
+    <t>Merge Sort</t>
   </si>
   <si>
-    <t>Execution Time (s)</t>
+    <t>Radix Sort</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
   </si>
 </sst>
 </file>
@@ -105,6 +109,1146 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Selection Sort'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Selection Sort'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Selection Sort'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.495000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6276.4539999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>633451.19200000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C3B8-4221-8819-AE37377A21ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Selection Sort'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Selection Sort'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Selection Sort'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.207999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3234.6590000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>309089.31300000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C3B8-4221-8819-AE37377A21ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Selection Sort'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Selection Sort'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Selection Sort'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>924.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9617.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C3B8-4221-8819-AE37377A21ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1035924496"/>
+        <c:axId val="1035922416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1035924496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1035922416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1035922416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1035924496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C84B56-D0EE-1408-AD15-6FCE910AF2FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,230 +1548,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AA8CF5-9E1A-4E7C-AE2E-BE457756D72A}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>2.7E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="1">
-        <v>1E-3</v>
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="1">
-        <v>5.5E-2</v>
+        <v>91.495000000000005</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.7109999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15.119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="1">
-        <v>4.6449999999999996</v>
+        <v>6276.4539999999997</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20.207999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>95.765000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
       <c r="B7" s="1">
-        <v>469.279</v>
+        <v>633451.19200000004</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3234.6590000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>924.404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>309089.31300000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9617.41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF38301-FE60-42BE-A13D-F12B73F1B332}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>100</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>100000</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4.58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="B8" s="1">
-        <v>57.076000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25761CB2-10F6-4539-BEC0-F6F399296DEA}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>100</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>10000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>